--- a/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest.xlsx
+++ b/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>clickonnewloan</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Principal</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>Interest</t>
@@ -194,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +216,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -265,23 +270,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,112 +729,112 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>10053.33</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>1634.47</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
         <v>8418.86</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <v>6702.95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>356.67</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>100.53</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <v>256.14</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>237.05</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>300</v>
-      </c>
-      <c r="B4" s="9">
-        <v>300</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="A4" s="7">
+        <v>200</v>
+      </c>
+      <c r="B4" s="7">
+        <v>200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="A5" s="7">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -843,7 +848,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,117 +860,113 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="10">
         <v>41897</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9">
         <v>10053.33</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9">
-        <v>300</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9">
-        <v>300</v>
-      </c>
-      <c r="L2" s="9">
-        <v>300</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>200</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7">
+        <v>200</v>
+      </c>
+      <c r="L2" s="7">
+        <v>200</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>47</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>41944</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>41944</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8">
+      <c r="E3" s="11"/>
+      <c r="F3" s="9">
         <v>1634.47</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>8418.86</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>100.53</v>
       </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
         <v>0</v>
       </c>
       <c r="K3" s="12">
@@ -974,239 +975,239 @@
       <c r="L3" s="12">
         <v>1735</v>
       </c>
-      <c r="M3" s="9">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9">
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>30</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>41974</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9">
         <v>1650.81</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>6768.05</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>84.19</v>
       </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
         <v>0</v>
       </c>
       <c r="K4" s="12">
         <v>1735</v>
       </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9"/>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7"/>
       <c r="Q4" s="12">
         <v>1735</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>31</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>42005</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9">
         <v>1667.32</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <v>5100.7299999999996</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>67.680000000000007</v>
       </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
         <v>0</v>
       </c>
       <c r="K5" s="12">
         <v>1735</v>
       </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9"/>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7"/>
       <c r="Q5" s="12">
         <v>1735</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>31</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>42036</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9">
         <v>1683.99</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <v>3416.74</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>51.01</v>
       </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
         <v>0</v>
       </c>
       <c r="K6" s="12">
         <v>1735</v>
       </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9"/>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7"/>
       <c r="Q6" s="12">
         <v>1735</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>28</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>42064</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9">
         <v>1700.83</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <v>1715.91</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>34.17</v>
       </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
         <v>0</v>
       </c>
       <c r="K7" s="12">
         <v>1735</v>
       </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9"/>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7"/>
       <c r="Q7" s="12">
         <v>1735</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>31</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>42095</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9">
         <v>1715.91</v>
       </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
         <v>19.09</v>
       </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
         <v>0</v>
       </c>
       <c r="K8" s="12">
         <v>1735</v>
       </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9"/>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7"/>
       <c r="Q8" s="12">
         <v>1735</v>
       </c>
@@ -1218,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,165 +1235,175 @@
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>117</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>84</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10">
+        <v>41944</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="11">
-        <v>41944</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="E2" s="12">
         <v>1735</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <v>1634.47</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>100.53</v>
       </c>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
         <v>8418.86</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>83</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>116</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="10">
         <v>41897</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="7">
+        <v>53.33</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>10053.33</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>115</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="10">
+        <v>41897</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="9">
-        <v>53.33</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>10053.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>82</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="11">
-        <v>41897</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="9">
-        <v>300</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>300</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="E4" s="7">
+        <v>200</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>200</v>
+      </c>
+      <c r="I4" s="7">
         <v>0</v>
       </c>
       <c r="J4" s="12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>81</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>114</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="10">
         <v>41897</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>54</v>
+      <c r="D5" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="E5" s="12">
         <v>10000</v>
       </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
         <v>0</v>
       </c>
       <c r="J5" s="12">
         <v>10000</v>
       </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest.xlsx
+++ b/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
@@ -191,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +219,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -258,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,6 +295,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,15 +737,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -765,22 +773,22 @@
         <v>10053.33</v>
       </c>
       <c r="B2" s="9">
-        <v>1634.47</v>
+        <v>1632.64</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>8418.86</v>
+        <v>8420.69</v>
       </c>
       <c r="F2" s="9">
-        <v>6702.95</v>
+        <v>6702.87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>356.67</v>
+        <v>354.84</v>
       </c>
       <c r="B3" s="7">
         <v>100.53</v>
@@ -792,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>256.14</v>
+        <v>254.31</v>
       </c>
       <c r="F3" s="7">
-        <v>237.05</v>
+        <v>237.13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -847,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,8 +868,7 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -955,10 +962,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="9">
-        <v>1634.47</v>
+        <v>1632.64</v>
       </c>
       <c r="G3" s="9">
-        <v>8418.86</v>
+        <v>8420.69</v>
       </c>
       <c r="H3" s="7">
         <v>100.53</v>
@@ -969,11 +976,11 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="12">
-        <v>1735</v>
-      </c>
-      <c r="L3" s="12">
-        <v>1735</v>
+      <c r="K3" s="9">
+        <v>1733.17</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1733.17</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -1000,13 +1007,13 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="9">
-        <v>1650.81</v>
+        <v>1650.79</v>
       </c>
       <c r="G4" s="9">
-        <v>6768.05</v>
+        <v>6769.9</v>
       </c>
       <c r="H4" s="7">
-        <v>84.19</v>
+        <v>84.21</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
@@ -1045,13 +1052,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="9">
-        <v>1667.32</v>
+        <v>1667.3</v>
       </c>
       <c r="G5" s="9">
-        <v>5100.7299999999996</v>
+        <v>5102.6000000000004</v>
       </c>
       <c r="H5" s="7">
-        <v>67.680000000000007</v>
+        <v>67.7</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1090,13 +1097,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
-        <v>1683.99</v>
+        <v>1683.97</v>
       </c>
       <c r="G6" s="9">
-        <v>3416.74</v>
+        <v>3418.63</v>
       </c>
       <c r="H6" s="7">
-        <v>51.01</v>
+        <v>51.03</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1135,13 +1142,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
-        <v>1700.83</v>
+        <v>1700.81</v>
       </c>
       <c r="G7" s="9">
-        <v>1715.91</v>
+        <v>1717.82</v>
       </c>
       <c r="H7" s="7">
-        <v>34.17</v>
+        <v>34.19</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1180,13 +1187,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="9">
-        <v>1715.91</v>
+        <v>1717.82</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
       </c>
       <c r="H8" s="7">
-        <v>19.09</v>
+        <v>17.18</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1222,17 +1229,18 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1271,7 +1279,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>49</v>
@@ -1282,11 +1290,11 @@
       <c r="D2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="12">
-        <v>1735</v>
+      <c r="E2" s="9">
+        <v>1733.17</v>
       </c>
       <c r="F2" s="9">
-        <v>1634.47</v>
+        <v>1632.64</v>
       </c>
       <c r="G2" s="7">
         <v>100.53</v>
@@ -1298,14 +1306,14 @@
         <v>0</v>
       </c>
       <c r="J2" s="9">
-        <v>8418.86</v>
+        <v>8420.69</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>49</v>
@@ -1339,7 +1347,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>49</v>
@@ -1373,7 +1381,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>49</v>

--- a/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest.xlsx
+++ b/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
@@ -191,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,13 +219,6 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -265,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -295,7 +288,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,15 +729,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -773,22 +765,22 @@
         <v>10053.33</v>
       </c>
       <c r="B2" s="9">
-        <v>1632.64</v>
+        <v>1634.47</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>8420.69</v>
+        <v>8418.86</v>
       </c>
       <c r="F2" s="9">
-        <v>6702.87</v>
+        <v>6702.95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>354.84</v>
+        <v>356.67</v>
       </c>
       <c r="B3" s="7">
         <v>100.53</v>
@@ -800,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>254.31</v>
+        <v>256.14</v>
       </c>
       <c r="F3" s="7">
-        <v>237.13</v>
+        <v>237.05</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -855,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +860,8 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.7109375" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -962,10 +955,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="9">
-        <v>1632.64</v>
+        <v>1634.47</v>
       </c>
       <c r="G3" s="9">
-        <v>8420.69</v>
+        <v>8418.86</v>
       </c>
       <c r="H3" s="7">
         <v>100.53</v>
@@ -976,11 +969,11 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="9">
-        <v>1733.17</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1733.17</v>
+      <c r="K3" s="12">
+        <v>1735</v>
+      </c>
+      <c r="L3" s="12">
+        <v>1735</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -1007,13 +1000,13 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="9">
-        <v>1650.79</v>
+        <v>1650.81</v>
       </c>
       <c r="G4" s="9">
-        <v>6769.9</v>
+        <v>6768.05</v>
       </c>
       <c r="H4" s="7">
-        <v>84.21</v>
+        <v>84.19</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
@@ -1052,13 +1045,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="9">
-        <v>1667.3</v>
+        <v>1667.32</v>
       </c>
       <c r="G5" s="9">
-        <v>5102.6000000000004</v>
+        <v>5100.7299999999996</v>
       </c>
       <c r="H5" s="7">
-        <v>67.7</v>
+        <v>67.680000000000007</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1097,13 +1090,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
-        <v>1683.97</v>
+        <v>1683.99</v>
       </c>
       <c r="G6" s="9">
-        <v>3418.63</v>
+        <v>3416.74</v>
       </c>
       <c r="H6" s="7">
-        <v>51.03</v>
+        <v>51.01</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1142,13 +1135,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
-        <v>1700.81</v>
+        <v>1700.83</v>
       </c>
       <c r="G7" s="9">
-        <v>1717.82</v>
+        <v>1715.91</v>
       </c>
       <c r="H7" s="7">
-        <v>34.19</v>
+        <v>34.17</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1187,13 +1180,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="9">
-        <v>1717.82</v>
+        <v>1715.91</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
       </c>
       <c r="H8" s="7">
-        <v>17.18</v>
+        <v>19.09</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1229,18 +1222,17 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1279,7 +1271,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>49</v>
@@ -1290,11 +1282,11 @@
       <c r="D2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="9">
-        <v>1733.17</v>
+      <c r="E2" s="12">
+        <v>1735</v>
       </c>
       <c r="F2" s="9">
-        <v>1632.64</v>
+        <v>1634.47</v>
       </c>
       <c r="G2" s="7">
         <v>100.53</v>
@@ -1306,14 +1298,14 @@
         <v>0</v>
       </c>
       <c r="J2" s="9">
-        <v>8420.69</v>
+        <v>8418.86</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>49</v>
@@ -1347,7 +1339,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>49</v>
@@ -1381,7 +1373,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>49</v>
